--- a/german/mods架構.xlsx
+++ b/german/mods架構.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27106"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/halalpha/Documents/gits/german/german/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="10755" windowHeight="8055"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="26540" windowHeight="22780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="wsc" sheetId="1" r:id="rId1"/>
     <sheet name="mh" sheetId="2" r:id="rId2"/>
     <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="186">
   <si>
     <t>role</t>
   </si>
@@ -666,14 +679,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -709,26 +722,26 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -736,17 +749,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -756,7 +769,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -764,23 +777,23 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -844,7 +857,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -925,14 +938,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="9FDFA8"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -967,12 +980,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1002,12 +1015,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1213,25 +1226,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>29</v>
       </c>
@@ -1249,7 +1262,7 @@
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
         <v>170</v>
@@ -1265,7 +1278,7 @@
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="9" t="s">
         <v>172</v>
@@ -1281,7 +1294,7 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
         <v>174</v>
@@ -1297,7 +1310,7 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
         <v>27</v>
@@ -1313,7 +1326,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
         <v>28</v>
@@ -1329,7 +1342,7 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="8" t="s">
         <v>30</v>
@@ -1349,7 +1362,7 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
@@ -1372,7 +1385,7 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
     </row>
-    <row r="9" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1393,7 +1406,7 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -1412,7 +1425,7 @@
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1431,7 +1444,7 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
@@ -1451,7 +1464,7 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="8" t="s">
         <v>25</v>
@@ -1493,7 +1506,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9" t="s">
@@ -1511,7 +1524,7 @@
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9" t="s">
@@ -1529,7 +1542,7 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="9" t="s">
@@ -1547,7 +1560,7 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8" t="s">
@@ -1561,7 +1574,7 @@
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8" t="s">
@@ -1575,7 +1588,7 @@
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8" t="s">
@@ -1589,7 +1602,7 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8" t="s">
@@ -1603,7 +1616,7 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="8" t="s">
         <v>26</v>
@@ -1642,7 +1655,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8" t="s">
@@ -1662,7 +1675,7 @@
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -1680,7 +1693,7 @@
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -1698,7 +1711,7 @@
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8" t="s">
@@ -1718,7 +1731,7 @@
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -1736,7 +1749,7 @@
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -1777,7 +1790,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8" t="s">
@@ -1795,7 +1808,7 @@
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
     </row>
-    <row r="29" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -1811,7 +1824,7 @@
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
     </row>
-    <row r="30" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -1829,7 +1842,7 @@
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
     </row>
-    <row r="31" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8" t="s">
@@ -1843,7 +1856,7 @@
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
     </row>
-    <row r="32" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="B32" s="8" t="s">
         <v>52</v>
@@ -1863,7 +1876,7 @@
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
     </row>
-    <row r="33" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
       <c r="B33" s="8" t="s">
         <v>56</v>
@@ -1881,7 +1894,7 @@
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8" t="s">
@@ -1895,7 +1908,7 @@
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:53" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:53" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
       <c r="B35" s="8" t="s">
         <v>177</v>
@@ -1919,7 +1932,7 @@
       <c r="I35" s="15"/>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
       <c r="B36" s="8" t="s">
         <v>11</v>
@@ -1939,7 +1952,7 @@
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -1955,7 +1968,7 @@
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
       <c r="B38" s="8" t="s">
         <v>13</v>
@@ -1971,7 +1984,7 @@
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
     </row>
-    <row r="39" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
       <c r="B39" s="8" t="s">
         <v>62</v>
@@ -1990,7 +2003,7 @@
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
     </row>
-    <row r="40" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
       <c r="B40" s="8" t="s">
         <v>15</v>
@@ -2004,7 +2017,7 @@
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
     </row>
-    <row r="41" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
       <c r="B41" s="8" t="s">
         <v>16</v>
@@ -2024,7 +2037,7 @@
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
     </row>
-    <row r="42" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8" t="s">
@@ -2038,7 +2051,7 @@
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
     </row>
-    <row r="43" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8"/>
       <c r="B43" s="8" t="s">
         <v>19</v>
@@ -2058,7 +2071,7 @@
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
     </row>
-    <row r="44" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8" t="s">
@@ -2076,7 +2089,7 @@
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
     </row>
-    <row r="45" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8" t="s">
@@ -2094,7 +2107,7 @@
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
     </row>
-    <row r="46" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -2112,7 +2125,7 @@
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
     </row>
-    <row r="47" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
       <c r="B47" s="8" t="s">
         <v>23</v>
@@ -2148,7 +2161,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="9" t="s">
@@ -2303,7 +2316,7 @@
       </c>
       <c r="BA48" s="14"/>
     </row>
-    <row r="49" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8" t="s">
@@ -2323,7 +2336,7 @@
       <c r="I49" s="15"/>
       <c r="J49" s="15"/>
     </row>
-    <row r="50" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -2337,7 +2350,7 @@
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
     </row>
-    <row r="51" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -2351,7 +2364,7 @@
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
     </row>
-    <row r="52" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -2371,7 +2384,7 @@
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
     </row>
-    <row r="53" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -2385,7 +2398,7 @@
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
     </row>
-    <row r="54" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -2403,7 +2416,7 @@
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
     </row>
-    <row r="55" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -2421,7 +2434,7 @@
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
     </row>
-    <row r="56" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -2437,7 +2450,7 @@
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
     </row>
-    <row r="57" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8" t="s">
@@ -2453,7 +2466,7 @@
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
     </row>
-    <row r="58" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8" t="s">
@@ -2469,7 +2482,7 @@
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>167</v>
       </c>
@@ -2477,13 +2490,13 @@
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="5" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
       <c r="B62" s="7" t="s">
         <v>185</v>
@@ -2498,22 +2511,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="22.125" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="18.25" customWidth="1"/>
-    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>29</v>
       </c>
@@ -2527,7 +2540,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
         <v>170</v>
@@ -2539,7 +2552,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="9" t="s">
         <v>172</v>
@@ -2551,7 +2564,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
         <v>174</v>
@@ -2563,7 +2576,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
         <v>27</v>
@@ -2575,7 +2588,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
         <v>28</v>
@@ -2587,7 +2600,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="8" t="s">
         <v>30</v>
@@ -2600,7 +2613,7 @@
       </c>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
@@ -2613,7 +2626,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -2624,7 +2637,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
@@ -2640,7 +2653,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="8" t="s">
         <v>25</v>
@@ -2652,7 +2665,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="9" t="s">
@@ -2663,7 +2676,7 @@
       </c>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
@@ -2673,7 +2686,7 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="8" t="s">
         <v>177</v>
       </c>
@@ -2687,7 +2700,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="11" t="s">
         <v>179</v>
       </c>
@@ -2698,14 +2711,22 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
+    <row r="16" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C17" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D17" s="10" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2721,7 +2742,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/german/mods架構.xlsx
+++ b/german/mods架構.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27106"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -17,6 +17,9 @@
     <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
+  <customWorkbookViews>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{A0D17C9B-01FB-6141-8DEB-0F5F749467C3}" mergeInterval="0" personalView="1" windowWidth="1327" windowHeight="966" activeSheetId="2"/>
+  </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="186">
   <si>
     <t>role</t>
   </si>
@@ -681,7 +684,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -935,6 +937,3144 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{A9695407-3548-CE45-B622-80577780A46A}" diskRevisions="1" revisionId="8" version="2">
+  <header guid="{51253B0B-F7D0-0745-A1D4-C91BCFF86436}" dateTime="2016-05-21T14:38:28" maxSheetId="4" userName="Microsoft Office User" r:id="rId1">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{A9695407-3548-CE45-B622-80577780A46A}" dateTime="2016-05-21T15:06:52" maxSheetId="4" userName="Microsoft Office User" r:id="rId2" minRId="1" maxRId="8">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="2" sqref="A18" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="1" sId="2" odxf="1" dxf="1">
+    <nc r="B18" t="inlineStr">
+      <is>
+        <t>recordInfo</t>
+        <phoneticPr fontId="6" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="2" sId="2" odxf="1" dxf="1">
+    <nc r="C18" t="inlineStr">
+      <is>
+        <t>recordOrigin</t>
+        <phoneticPr fontId="6" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="2" sqref="D18" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="E18" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="F18" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="G18" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="H18" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="I18" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="J18" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="K18" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="L18" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="M18" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="N18" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="O18" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="P18" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="Q18" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="R18" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="S18" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="T18" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="U18" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="V18" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="W18" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="X18" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="Y18" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="Z18" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AA18" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AB18" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AC18" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AD18" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AE18" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AF18" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AG18" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AH18" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AI18" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AJ18" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AK18" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AL18" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AM18" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AN18" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AO18" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AP18" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AQ18" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AR18" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AS18" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AT18" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AU18" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AV18" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AW18" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AX18" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AY18" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AZ18" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="BA18" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="A18:XFD18" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="A19" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="3" sId="2" odxf="1" dxf="1">
+    <nc r="B19" t="inlineStr">
+      <is>
+        <t>language</t>
+        <phoneticPr fontId="6" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="4" sId="2" odxf="1" dxf="1">
+    <nc r="C19" t="inlineStr">
+      <is>
+        <t>languageTerm</t>
+        <phoneticPr fontId="6" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="5" sId="2" odxf="1" dxf="1">
+    <nc r="D19" t="inlineStr">
+      <is>
+        <t>type</t>
+        <phoneticPr fontId="6" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="6" sId="2" odxf="1" dxf="1">
+    <nc r="E19" t="inlineStr">
+      <is>
+        <t>code</t>
+        <phoneticPr fontId="6" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="2" sqref="F19" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="G19" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="H19" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="I19" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="J19" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="K19" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="L19" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="M19" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="N19" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="O19" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="P19" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="Q19" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="R19" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="S19" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="T19" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="U19" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="V19" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="W19" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="X19" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="Y19" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="Z19" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AA19" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AB19" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AC19" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AD19" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AE19" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AF19" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AG19" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AH19" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AI19" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AJ19" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AK19" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AL19" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AM19" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AN19" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AO19" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AP19" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AQ19" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AR19" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AS19" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AT19" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AU19" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AV19" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AW19" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AX19" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AY19" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AZ19" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="BA19" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="A19:XFD19" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="A20" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="B20" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="C20" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="7" sId="2" odxf="1" dxf="1">
+    <nc r="D20" t="inlineStr">
+      <is>
+        <t>authority</t>
+        <phoneticPr fontId="6" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="8" sId="2" odxf="1" dxf="1">
+    <nc r="E20" t="inlineStr">
+      <is>
+        <t>iso639-2b</t>
+        <phoneticPr fontId="6" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="2" sqref="F20" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="G20" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="H20" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="I20" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="J20" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="K20" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="L20" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="M20" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="N20" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="O20" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="P20" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="Q20" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="R20" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="S20" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="T20" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="U20" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="V20" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="W20" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="X20" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="Y20" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="Z20" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AA20" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AB20" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AC20" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AD20" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AE20" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AF20" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AG20" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AH20" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AI20" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AJ20" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AK20" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AL20" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AM20" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AN20" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AO20" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AP20" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AQ20" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AR20" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AS20" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AT20" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AU20" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AV20" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AW20" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AX20" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AY20" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="AZ20" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="BA20" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="A20:XFD20" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1226,8 +4366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA62"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2503,18 +5643,25 @@
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{A0D17C9B-01FB-6141-8DEB-0F5F749467C3}">
+      <selection activeCell="A38" sqref="A38:XFD38"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:BA20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="A19" sqref="A19:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2719,7 +5866,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="8" t="s">
         <v>62</v>
       </c>
@@ -2730,7 +5877,65 @@
         <v>64</v>
       </c>
     </row>
+    <row r="18" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+    </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{A0D17C9B-01FB-6141-8DEB-0F5F749467C3}">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2744,6 +5949,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <customSheetViews>
+    <customSheetView guid="{A0D17C9B-01FB-6141-8DEB-0F5F749467C3}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
